--- a/BridgeTest.xlsx
+++ b/BridgeTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\Aliexpress-accgen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mos\BridgeSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E3C9C5-B681-426A-9964-59A24C398383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC5C3A-6DD9-4656-B6DE-424753C81B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="3120" windowWidth="28725" windowHeight="11385" xr2:uid="{9AFCA916-FAFA-464A-85DC-A9F91595025C}"/>
+    <workbookView xWindow="75" yWindow="1560" windowWidth="28725" windowHeight="11385" xr2:uid="{9AFCA916-FAFA-464A-85DC-A9F91595025C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>644</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>32.830372730000001</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>679</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>32.82826558</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1088</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>32.67619277</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1089</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>32.676368420000003</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1125</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>32.727416599999998</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1148</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>32.68909463</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2249</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>32.849149240000003</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2259</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>32.84799005</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2260</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>32.84778721</v>
